--- a/doc/CPS联盟系统安排20170506.xlsx
+++ b/doc/CPS联盟系统安排20170506.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="客户经理信息导入表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>一级机构</t>
   </si>
@@ -60,6 +60,9 @@
     <t>2017.05.11前</t>
   </si>
   <si>
+    <t>待优化</t>
+  </si>
+  <si>
     <t>【推广商品】</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
   </si>
   <si>
     <t>2017.05.12前</t>
+  </si>
+  <si>
+    <t>模板ok</t>
   </si>
   <si>
     <t>【财务管理】</t>
@@ -178,75 +184,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,30 +215,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -292,6 +224,73 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -309,6 +308,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,67 +349,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,115 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,6 +540,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -570,26 +585,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +623,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -640,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1190,7 +1196,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1214,174 +1220,196 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:2">
+    <row r="2" s="2" customFormat="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:2">
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:2">
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:2">
+    <row r="7" s="2" customFormat="1" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:2">
+    <row r="8" s="2" customFormat="1" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:4">
       <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+        <v>40</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/doc/CPS联盟系统安排20170506.xlsx
+++ b/doc/CPS联盟系统安排20170506.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="客户经理信息导入表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>一级机构</t>
   </si>
@@ -54,12 +54,18 @@
     <t>备注</t>
   </si>
   <si>
+    <t>实际完成时间</t>
+  </si>
+  <si>
     <t>【合同管理】</t>
   </si>
   <si>
     <t>2017.05.11前</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>待优化</t>
   </si>
   <si>
@@ -75,24 +81,33 @@
     <t>2017.05.12前</t>
   </si>
   <si>
+    <t>待优化  模拟数据，订单表添加商城id,分销机构id,方便数据分析</t>
+  </si>
+  <si>
+    <t>2017.05.11</t>
+  </si>
+  <si>
+    <t>【财务管理】</t>
+  </si>
+  <si>
+    <t>2017.05.13前</t>
+  </si>
+  <si>
+    <t>待优化  结算状态应该从商城同步？此处的结算是否指商城和cps的佣金结算</t>
+  </si>
+  <si>
+    <t>【结算管理】</t>
+  </si>
+  <si>
+    <t>【佣金管理】</t>
+  </si>
+  <si>
+    <t>2017.05.14前</t>
+  </si>
+  <si>
     <t>模板ok</t>
   </si>
   <si>
-    <t>【财务管理】</t>
-  </si>
-  <si>
-    <t>2017.05.13前</t>
-  </si>
-  <si>
-    <t>【结算管理】</t>
-  </si>
-  <si>
-    <t>【佣金管理】</t>
-  </si>
-  <si>
-    <t>2017.05.14前</t>
-  </si>
-  <si>
     <t>【海报管理】</t>
   </si>
   <si>
@@ -103,9 +118,6 @@
   </si>
   <si>
     <t>2017.05.05前</t>
-  </si>
-  <si>
-    <t>ok</t>
   </si>
   <si>
     <t>差页面样式</t>
@@ -170,10 +182,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -191,8 +203,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,123 +280,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,79 +361,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,103 +535,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,9 +557,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,21 +616,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,21 +644,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -629,27 +652,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,133 +670,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1193,20 +1205,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1219,197 +1231,221 @@
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:4">
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/doc/CPS联盟系统安排20170506.xlsx
+++ b/doc/CPS联盟系统安排20170506.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>一级机构</t>
   </si>
@@ -72,6 +72,9 @@
     <t>【推广商品】</t>
   </si>
   <si>
+    <t>待优化  按钮样式已替换</t>
+  </si>
+  <si>
     <t xml:space="preserve">【推广管理】  </t>
   </si>
   <si>
@@ -105,13 +108,18 @@
     <t>2017.05.14前</t>
   </si>
   <si>
-    <t>模板ok</t>
+    <t>2017.05.14</t>
   </si>
   <si>
     <t>【海报管理】</t>
   </si>
   <si>
     <t>2017.05.15前</t>
+  </si>
+  <si>
+    <t>该功能应该只有平台方，即cps有权限上传海报底图，然后可以根据商品或分类去定制不同的海报底图模板。
+海报模板：目前只有一张海报模板：写死，暂时可根据模板管理人员替换,在推广管理中体现
+后期扩张定制海报模板上传，启用</t>
   </si>
   <si>
     <t>【权限管理】</t>
@@ -182,10 +190,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -203,9 +211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,39 +241,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,12 +272,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -294,8 +324,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,38 +334,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,6 +369,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -368,180 +550,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,11 +565,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,17 +581,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,21 +607,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,11 +635,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,109 +681,109 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,26 +792,35 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1175,23 +1192,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:6">
-      <c r="A28" s="3" t="s">
+    <row r="28" s="6" customFormat="1" spans="1:6">
+      <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1208,18 +1225,18 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1236,7 +1253,7 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1250,7 +1267,7 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1260,12 +1277,12 @@
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
+      <c r="A4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -1278,42 +1295,42 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
+      <c r="A5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
+      <c r="A6" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1322,84 +1339,90 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
+    <row r="8" s="2" customFormat="1" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:4">
-      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="81" customHeight="1" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
+      <c r="A10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
+      <c r="A11" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>38</v>
+      <c r="A12" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
+      <c r="A13" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>42</v>
+      <c r="A14" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -1407,45 +1430,45 @@
     </row>
     <row r="17" s="2" customFormat="1" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/doc/CPS联盟系统安排20170506.xlsx
+++ b/doc/CPS联盟系统安排20170506.xlsx
@@ -96,7 +96,7 @@
     <t>2017.05.13前</t>
   </si>
   <si>
-    <t>待优化  结算状态应该从商城同步？此处的结算是否指商城和cps的佣金结算</t>
+    <t>待优化  结算状态应该从商城同步？此处的结算是否指商城和cps的佣金结算,待优化状态</t>
   </si>
   <si>
     <t>【结算管理】</t>
@@ -190,10 +190,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -205,9 +205,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,97 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -369,6 +369,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,126 +496,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,24 +560,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,6 +574,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,8 +614,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +678,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
